--- a/basisdatenb.xlsx
+++ b/basisdatenb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1A4DC4-F203-4A84-A4E7-22BBC8E9EF2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D4D80F-F39B-42C8-8A61-7427B1560BBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7290" xr2:uid="{0166FDE3-8DB8-4B1B-AEEB-D539C2EC85F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{0166FDE3-8DB8-4B1B-AEEB-D539C2EC85F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Mid-Level</t>
   </si>
   <si>
-    <t>Laura Meier, Eva Braun</t>
-  </si>
-  <si>
     <t>Robert Klein</t>
   </si>
   <si>
@@ -114,15 +111,9 @@
     <t>Tom Berger, Nina Hoffmann</t>
   </si>
   <si>
-    <t>Eva Braun</t>
-  </si>
-  <si>
     <t>Legal</t>
   </si>
   <si>
-    <t>eva.braun@firma.de</t>
-  </si>
-  <si>
     <t>Recht, Theater, Yoga</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>Künstliche Intelligenz, Fotografie</t>
   </si>
   <si>
-    <t>Eva Braun, Paul König</t>
-  </si>
-  <si>
     <t>Max Schröder</t>
   </si>
   <si>
@@ -285,9 +273,6 @@
     <t>Datenschutz, Theater, Reisen</t>
   </si>
   <si>
-    <t>Eva Braun, Jonas Schäfer</t>
-  </si>
-  <si>
     <t>Katrin Lange</t>
   </si>
   <si>
@@ -310,6 +295,21 @@
   </si>
   <si>
     <t>Clara Becker, Max Schröder</t>
+  </si>
+  <si>
+    <t>Eva Berd</t>
+  </si>
+  <si>
+    <t>Laura Meier, Eva Berd</t>
+  </si>
+  <si>
+    <t>Eva Berd, Paul König</t>
+  </si>
+  <si>
+    <t>Eva Berd, Jonas Schäfer</t>
+  </si>
+  <si>
+    <t>eva.berd@firma.de</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,347 +773,347 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1122,7 @@
     <hyperlink ref="C3" r:id="rId2" display="mailto:tom.berger@firma.de" xr:uid="{C02E4A6E-3093-45F3-9F69-8DD4FE1A74C3}"/>
     <hyperlink ref="C4" r:id="rId3" display="mailto:jana.schulz@firma.de" xr:uid="{580E08D7-8E1E-4ECA-B717-78261496A3FE}"/>
     <hyperlink ref="C5" r:id="rId4" display="mailto:robert.klein@firma.de" xr:uid="{BC19CD77-E2BD-4E95-80DC-7349CA06B589}"/>
-    <hyperlink ref="C6" r:id="rId5" display="mailto:eva.braun@firma.de" xr:uid="{0F297CFA-A845-493E-A779-59036669EE0C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{0F297CFA-A845-493E-A779-59036669EE0C}"/>
     <hyperlink ref="C7" r:id="rId6" display="mailto:nina.hoffmann@firma.de" xr:uid="{DDCED9AD-05BB-4D1B-B712-D7AFC34A9F0C}"/>
     <hyperlink ref="C8" r:id="rId7" display="mailto:felix.weber@firma.de" xr:uid="{9952A2FE-084D-429D-A545-691EA7B4E2AF}"/>
     <hyperlink ref="C9" r:id="rId8" display="mailto:max.schroeder@firma.de" xr:uid="{27936CE1-71F9-4581-973D-D078FDAA267A}"/>
